--- a/data/Example-Sample-Resources.xlsx
+++ b/data/Example-Sample-Resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E598132A-8655-8741-9EC3-3FDB34962AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6328A598-5DE5-7946-A0DD-632757F33D18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16020" xr2:uid="{8A4A7765-7A67-0B4C-900B-18238C5084E3}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -507,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -518,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -529,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>

--- a/data/Example-Sample-Resources.xlsx
+++ b/data/Example-Sample-Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6328A598-5DE5-7946-A0DD-632757F33D18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285893A7-0843-8C4F-87A0-A1C4BC994257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16020" xr2:uid="{8A4A7765-7A67-0B4C-900B-18238C5084E3}"/>
+    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="16020" xr2:uid="{8A4A7765-7A67-0B4C-900B-18238C5084E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
